--- a/src/test/resources/TestData/GasMileageTestData.xlsx
+++ b/src/test/resources/TestData/GasMileageTestData.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayah\IdeaProjects\cybertek21-cucumber-junit\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06586FF-7DDA-4279-AD60-68B10898382B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2433C4FB-D7ED-4C78-9751-29092E522B9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="720" windowWidth="15375" windowHeight="9435" xr2:uid="{8C9A4C7D-831F-401A-8943-FF6319521C67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{8C9A4C7D-831F-401A-8943-FF6319521C67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="114">
   <si>
     <t>Execute</t>
   </si>
@@ -58,12 +58,331 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Prevous</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>1477.33</t>
+  </si>
+  <si>
+    <t>1,477.33</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>02:14:51 AM</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>02:14:52 AM</t>
+  </si>
+  <si>
+    <t>19.18</t>
+  </si>
+  <si>
+    <t>02:14:53 AM</t>
+  </si>
+  <si>
+    <t>SKIP REQUESTED</t>
+  </si>
+  <si>
+    <t>02:14:54 AM</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>02:14:55 AM</t>
+  </si>
+  <si>
+    <t>02:14:56 AM</t>
+  </si>
+  <si>
+    <t>02:14:57 AM</t>
+  </si>
+  <si>
+    <t>02:14:58 AM</t>
+  </si>
+  <si>
+    <t>02:14:59 AM</t>
+  </si>
+  <si>
+    <t>02:15:00 AM</t>
+  </si>
+  <si>
+    <t>02:15:01 AM</t>
+  </si>
+  <si>
+    <t>02:15:02 AM</t>
+  </si>
+  <si>
+    <t>02:15:03 AM</t>
+  </si>
+  <si>
+    <t>02:15:04 AM</t>
+  </si>
+  <si>
+    <t>02:15:05 AM</t>
+  </si>
+  <si>
+    <t>02:15:06 AM</t>
+  </si>
+  <si>
+    <t>02:15:07 AM</t>
+  </si>
+  <si>
+    <t>02:15:08 AM</t>
+  </si>
+  <si>
+    <t>02:15:09 AM</t>
+  </si>
+  <si>
+    <t>02:15:10 AM</t>
+  </si>
+  <si>
+    <t>02:15:11 AM</t>
+  </si>
+  <si>
+    <t>02:15:12 AM</t>
+  </si>
+  <si>
+    <t>02:15:13 AM</t>
+  </si>
+  <si>
+    <t>02:15:14 AM</t>
+  </si>
+  <si>
+    <t>02:15:15 AM</t>
+  </si>
+  <si>
+    <t>02:15:16 AM</t>
+  </si>
+  <si>
+    <t>02:15:17 AM</t>
+  </si>
+  <si>
+    <t>02:15:18 AM</t>
+  </si>
+  <si>
+    <t>02:15:19 AM</t>
+  </si>
+  <si>
+    <t>02:15:20 AM</t>
+  </si>
+  <si>
+    <t>02:15:21 AM</t>
+  </si>
+  <si>
+    <t>02:15:22 AM</t>
+  </si>
+  <si>
+    <t>02:15:23 AM</t>
+  </si>
+  <si>
+    <t>02:15:24 AM</t>
+  </si>
+  <si>
+    <t>02:15:25 AM</t>
+  </si>
+  <si>
+    <t>02:15:26 AM</t>
+  </si>
+  <si>
+    <t>02:15:27 AM</t>
+  </si>
+  <si>
+    <t>02:15:28 AM</t>
+  </si>
+  <si>
+    <t>02:15:29 AM</t>
+  </si>
+  <si>
+    <t>02:15:30 AM</t>
+  </si>
+  <si>
+    <t>02:15:31 AM</t>
+  </si>
+  <si>
+    <t>02:15:32 AM</t>
+  </si>
+  <si>
+    <t>02:15:33 AM</t>
+  </si>
+  <si>
+    <t>02:15:34 AM</t>
+  </si>
+  <si>
+    <t>02:15:35 AM</t>
+  </si>
+  <si>
+    <t>02:15:36 AM</t>
+  </si>
+  <si>
+    <t>02:15:37 AM</t>
+  </si>
+  <si>
+    <t>02:15:38 AM</t>
+  </si>
+  <si>
+    <t>02:15:39 AM</t>
+  </si>
+  <si>
+    <t>02:15:40 AM</t>
+  </si>
+  <si>
+    <t>02:15:41 AM</t>
+  </si>
+  <si>
+    <t>02:15:42 AM</t>
+  </si>
+  <si>
+    <t>02:15:43 AM</t>
+  </si>
+  <si>
+    <t>02:15:44 AM</t>
+  </si>
+  <si>
+    <t>02:15:45 AM</t>
+  </si>
+  <si>
+    <t>02:15:46 AM</t>
+  </si>
+  <si>
+    <t>02:15:47 AM</t>
+  </si>
+  <si>
+    <t>02:15:48 AM</t>
+  </si>
+  <si>
+    <t>02:15:49 AM</t>
+  </si>
+  <si>
+    <t>02:15:50 AM</t>
+  </si>
+  <si>
+    <t>02:15:51 AM</t>
+  </si>
+  <si>
+    <t>02:15:52 AM</t>
+  </si>
+  <si>
+    <t>02:15:53 AM</t>
+  </si>
+  <si>
+    <t>02:15:54 AM</t>
+  </si>
+  <si>
+    <t>02:15:55 AM</t>
+  </si>
+  <si>
+    <t>02:15:56 AM</t>
+  </si>
+  <si>
+    <t>1846.67</t>
+  </si>
+  <si>
+    <t>1,846.67</t>
+  </si>
+  <si>
+    <t>02:15:57 AM</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>191.80</t>
+  </si>
+  <si>
+    <t>191.8</t>
+  </si>
+  <si>
+    <t>02:15:58 AM</t>
+  </si>
+  <si>
+    <t>02:15:59 AM</t>
+  </si>
+  <si>
+    <t>02:16:00 AM</t>
+  </si>
+  <si>
+    <t>02:16:02 AM</t>
+  </si>
+  <si>
+    <t>738.67</t>
+  </si>
+  <si>
+    <t>6.67</t>
+  </si>
+  <si>
+    <t>02:16:03 AM</t>
+  </si>
+  <si>
+    <t>38.36</t>
+  </si>
+  <si>
+    <t>02:16:04 AM</t>
+  </si>
+  <si>
+    <t>02:16:05 AM</t>
+  </si>
+  <si>
+    <t>02:16:06 AM</t>
+  </si>
+  <si>
+    <t>7386.67</t>
+  </si>
+  <si>
+    <t>7,386.67</t>
+  </si>
+  <si>
+    <t>02:16:07 AM</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>02:16:08 AM</t>
+  </si>
+  <si>
+    <t>47.95</t>
+  </si>
+  <si>
+    <t>02:16:09 AM</t>
+  </si>
+  <si>
+    <t>02:16:10 AM</t>
+  </si>
+  <si>
+    <t>02:16:11 AM</t>
+  </si>
+  <si>
+    <t>02:16:12 AM</t>
+  </si>
+  <si>
+    <t>02:16:13 AM</t>
+  </si>
+  <si>
+    <t>02:16:14 AM</t>
+  </si>
+  <si>
+    <t>02:16:15 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,15 +728,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DFBF50-B08B-429A-8940-F29564BE496A}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,22 +744,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -448,10 +770,25 @@
         <v>123000</v>
       </c>
       <c r="C2">
+        <v>12200</v>
+      </c>
+      <c r="D2">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -459,10 +796,25 @@
         <v>1500</v>
       </c>
       <c r="C3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1400</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -470,29 +822,3292 @@
         <v>9877</v>
       </c>
       <c r="C4">
+        <v>7000</v>
+      </c>
+      <c r="D4">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>500</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>123000</v>
+      </c>
+      <c r="C6">
+        <v>12200</v>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1500</v>
+      </c>
+      <c r="C7">
+        <v>1400</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>9877</v>
+      </c>
+      <c r="C8">
+        <v>7000</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>123000</v>
+      </c>
+      <c r="C10">
+        <v>12200</v>
+      </c>
+      <c r="D10">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1500</v>
+      </c>
+      <c r="C11">
+        <v>1400</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>9877</v>
+      </c>
+      <c r="C12">
+        <v>7000</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>500</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>123000</v>
+      </c>
+      <c r="C14">
+        <v>12200</v>
+      </c>
+      <c r="D14">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>1500</v>
+      </c>
+      <c r="C15">
+        <v>1400</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>9877</v>
+      </c>
+      <c r="C16">
+        <v>7000</v>
+      </c>
+      <c r="D16">
+        <v>150</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>500</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>123000</v>
+      </c>
+      <c r="C18">
+        <v>12200</v>
+      </c>
+      <c r="D18">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>1500</v>
+      </c>
+      <c r="C19">
+        <v>1400</v>
+      </c>
+      <c r="D19">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>9877</v>
+      </c>
+      <c r="C20">
+        <v>7000</v>
+      </c>
+      <c r="D20">
+        <v>150</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>500</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>123000</v>
+      </c>
+      <c r="C22">
+        <v>12200</v>
+      </c>
+      <c r="D22">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>1500</v>
+      </c>
+      <c r="C23">
+        <v>1400</v>
+      </c>
+      <c r="D23">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>9877</v>
+      </c>
+      <c r="C24">
+        <v>7000</v>
+      </c>
+      <c r="D24">
+        <v>150</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>500</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>123000</v>
+      </c>
+      <c r="C26">
+        <v>12200</v>
+      </c>
+      <c r="D26">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>1500</v>
+      </c>
+      <c r="C27">
+        <v>1400</v>
+      </c>
+      <c r="D27">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>9877</v>
+      </c>
+      <c r="C28">
+        <v>7000</v>
+      </c>
+      <c r="D28">
+        <v>150</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>500</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>123000</v>
+      </c>
+      <c r="C30">
+        <v>12200</v>
+      </c>
+      <c r="D30">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>1500</v>
+      </c>
+      <c r="C31">
+        <v>1400</v>
+      </c>
+      <c r="D31">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>9877</v>
+      </c>
+      <c r="C32">
+        <v>7000</v>
+      </c>
+      <c r="D32">
+        <v>150</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>500</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>123000</v>
+      </c>
+      <c r="C34">
+        <v>12200</v>
+      </c>
+      <c r="D34">
+        <v>75</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>1500</v>
+      </c>
+      <c r="C35">
+        <v>1400</v>
+      </c>
+      <c r="D35">
+        <v>60</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>9877</v>
+      </c>
+      <c r="C36">
+        <v>7000</v>
+      </c>
+      <c r="D36">
+        <v>150</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>500</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>123000</v>
+      </c>
+      <c r="C38">
+        <v>12200</v>
+      </c>
+      <c r="D38">
+        <v>75</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>1500</v>
+      </c>
+      <c r="C39">
+        <v>1400</v>
+      </c>
+      <c r="D39">
+        <v>60</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>9877</v>
+      </c>
+      <c r="C40">
+        <v>7000</v>
+      </c>
+      <c r="D40">
+        <v>150</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>500</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>123000</v>
+      </c>
+      <c r="C42">
+        <v>12200</v>
+      </c>
+      <c r="D42">
+        <v>75</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>1500</v>
+      </c>
+      <c r="C43">
+        <v>1400</v>
+      </c>
+      <c r="D43">
+        <v>60</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>9877</v>
+      </c>
+      <c r="C44">
+        <v>7000</v>
+      </c>
+      <c r="D44">
+        <v>150</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>500</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>123000</v>
+      </c>
+      <c r="C46">
+        <v>12200</v>
+      </c>
+      <c r="D46">
+        <v>75</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>1500</v>
+      </c>
+      <c r="C47">
+        <v>1400</v>
+      </c>
+      <c r="D47">
+        <v>60</v>
+      </c>
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>9877</v>
+      </c>
+      <c r="C48">
+        <v>7000</v>
+      </c>
+      <c r="D48">
+        <v>150</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>500</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>123000</v>
+      </c>
+      <c r="C50">
+        <v>12200</v>
+      </c>
+      <c r="D50">
+        <v>75</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>1500</v>
+      </c>
+      <c r="C51">
+        <v>1400</v>
+      </c>
+      <c r="D51">
+        <v>60</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>9877</v>
+      </c>
+      <c r="C52">
+        <v>7000</v>
+      </c>
+      <c r="D52">
+        <v>150</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>500</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>15</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>123000</v>
+      </c>
+      <c r="C54">
+        <v>12200</v>
+      </c>
+      <c r="D54">
+        <v>75</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>1500</v>
+      </c>
+      <c r="C55">
+        <v>1400</v>
+      </c>
+      <c r="D55">
+        <v>60</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>9877</v>
+      </c>
+      <c r="C56">
+        <v>7000</v>
+      </c>
+      <c r="D56">
+        <v>150</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>500</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>123000</v>
+      </c>
+      <c r="C58">
+        <v>12200</v>
+      </c>
+      <c r="D58">
+        <v>75</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>1500</v>
+      </c>
+      <c r="C59">
+        <v>1400</v>
+      </c>
+      <c r="D59">
+        <v>60</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>9877</v>
+      </c>
+      <c r="C60">
+        <v>7000</v>
+      </c>
+      <c r="D60">
+        <v>150</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>500</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>15</v>
+      </c>
+      <c r="G61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>123000</v>
+      </c>
+      <c r="C62">
+        <v>12200</v>
+      </c>
+      <c r="D62">
+        <v>75</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63">
+        <v>1500</v>
+      </c>
+      <c r="C63">
+        <v>1400</v>
+      </c>
+      <c r="D63">
+        <v>60</v>
+      </c>
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <v>9877</v>
+      </c>
+      <c r="C64">
+        <v>7000</v>
+      </c>
+      <c r="D64">
+        <v>150</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65">
+        <v>500</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>15</v>
+      </c>
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <v>123000</v>
+      </c>
+      <c r="C66">
+        <v>12200</v>
+      </c>
+      <c r="D66">
+        <v>75</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>1500</v>
+      </c>
+      <c r="C67">
+        <v>1400</v>
+      </c>
+      <c r="D67">
+        <v>60</v>
+      </c>
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <v>9877</v>
+      </c>
+      <c r="C68">
+        <v>7000</v>
+      </c>
+      <c r="D68">
+        <v>150</v>
+      </c>
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>500</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70">
+        <v>123000</v>
+      </c>
+      <c r="C70">
+        <v>12200</v>
+      </c>
+      <c r="D70">
+        <v>75</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71">
+        <v>1500</v>
+      </c>
+      <c r="C71">
+        <v>1400</v>
+      </c>
+      <c r="D71">
+        <v>60</v>
+      </c>
+      <c r="E71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>9877</v>
+      </c>
+      <c r="C72">
+        <v>7000</v>
+      </c>
+      <c r="D72">
+        <v>150</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>500</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74">
+        <v>123000</v>
+      </c>
+      <c r="C74">
+        <v>12200</v>
+      </c>
+      <c r="D74">
+        <v>75</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75">
+        <v>1500</v>
+      </c>
+      <c r="C75">
+        <v>1400</v>
+      </c>
+      <c r="D75">
+        <v>60</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76">
+        <v>9877</v>
+      </c>
+      <c r="C76">
+        <v>7000</v>
+      </c>
+      <c r="D76">
+        <v>150</v>
+      </c>
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>500</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>15</v>
+      </c>
+      <c r="G77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78">
+        <v>123000</v>
+      </c>
+      <c r="C78">
+        <v>12200</v>
+      </c>
+      <c r="D78">
+        <v>75</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79">
+        <v>1500</v>
+      </c>
+      <c r="C79">
+        <v>1400</v>
+      </c>
+      <c r="D79">
+        <v>60</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" t="s">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>9877</v>
+      </c>
+      <c r="C80">
+        <v>7000</v>
+      </c>
+      <c r="D80">
+        <v>150</v>
+      </c>
+      <c r="E80" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81">
+        <v>500</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>15</v>
+      </c>
+      <c r="G81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82">
+        <v>123000</v>
+      </c>
+      <c r="C82">
+        <v>12200</v>
+      </c>
+      <c r="D82">
+        <v>75</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83">
+        <v>1500</v>
+      </c>
+      <c r="C83">
+        <v>1400</v>
+      </c>
+      <c r="D83">
+        <v>60</v>
+      </c>
+      <c r="E83" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84">
+        <v>9877</v>
+      </c>
+      <c r="C84">
+        <v>7000</v>
+      </c>
+      <c r="D84">
+        <v>150</v>
+      </c>
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85">
+        <v>500</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86">
+        <v>123000</v>
+      </c>
+      <c r="C86">
+        <v>12200</v>
+      </c>
+      <c r="D86">
+        <v>75</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87">
+        <v>1500</v>
+      </c>
+      <c r="C87">
+        <v>1400</v>
+      </c>
+      <c r="D87">
+        <v>60</v>
+      </c>
+      <c r="E87" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" t="s">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88">
+        <v>9877</v>
+      </c>
+      <c r="C88">
+        <v>7000</v>
+      </c>
+      <c r="D88">
+        <v>150</v>
+      </c>
+      <c r="E88" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89">
+        <v>500</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90">
+        <v>123000</v>
+      </c>
+      <c r="C90">
+        <v>12200</v>
+      </c>
+      <c r="D90">
+        <v>75</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91">
+        <v>1500</v>
+      </c>
+      <c r="C91">
+        <v>1400</v>
+      </c>
+      <c r="D91">
+        <v>60</v>
+      </c>
+      <c r="E91" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91" t="s">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92">
+        <v>9877</v>
+      </c>
+      <c r="C92">
+        <v>7000</v>
+      </c>
+      <c r="D92">
+        <v>150</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93">
+        <v>500</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>15</v>
+      </c>
+      <c r="G93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94">
+        <v>123000</v>
+      </c>
+      <c r="C94">
+        <v>12200</v>
+      </c>
+      <c r="D94">
+        <v>75</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95">
+        <v>1500</v>
+      </c>
+      <c r="C95">
+        <v>1400</v>
+      </c>
+      <c r="D95">
+        <v>60</v>
+      </c>
+      <c r="E95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" t="s">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96">
+        <v>9877</v>
+      </c>
+      <c r="C96">
+        <v>7000</v>
+      </c>
+      <c r="D96">
+        <v>150</v>
+      </c>
+      <c r="E96" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>7890</v>
-      </c>
-      <c r="C6">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97">
+        <v>500</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>15</v>
+      </c>
+      <c r="G97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98">
+        <v>123000</v>
+      </c>
+      <c r="C98">
+        <v>12200</v>
+      </c>
+      <c r="D98">
+        <v>75</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99">
+        <v>1500</v>
+      </c>
+      <c r="C99">
+        <v>1400</v>
+      </c>
+      <c r="D99">
+        <v>60</v>
+      </c>
+      <c r="E99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" t="s">
+        <v>21</v>
+      </c>
+      <c r="G99" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100">
+        <v>9877</v>
+      </c>
+      <c r="C100">
+        <v>7000</v>
+      </c>
+      <c r="D100">
+        <v>150</v>
+      </c>
+      <c r="E100" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101">
+        <v>500</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>15</v>
+      </c>
+      <c r="G101" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102">
+        <v>123000</v>
+      </c>
+      <c r="C102">
+        <v>12200</v>
+      </c>
+      <c r="D102">
+        <v>75</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103">
+        <v>1500</v>
+      </c>
+      <c r="C103">
+        <v>1400</v>
+      </c>
+      <c r="D103">
+        <v>60</v>
+      </c>
+      <c r="E103" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104">
+        <v>9877</v>
+      </c>
+      <c r="C104">
+        <v>7000</v>
+      </c>
+      <c r="D104">
+        <v>150</v>
+      </c>
+      <c r="E104" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105">
+        <v>500</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>15</v>
+      </c>
+      <c r="G105" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106">
+        <v>123000</v>
+      </c>
+      <c r="C106">
+        <v>12200</v>
+      </c>
+      <c r="D106">
+        <v>75</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107">
+        <v>123000</v>
+      </c>
+      <c r="C107">
+        <v>12200</v>
+      </c>
+      <c r="D107">
+        <v>60</v>
+      </c>
+      <c r="E107" t="s">
+        <v>84</v>
+      </c>
+      <c r="F107" t="s">
+        <v>85</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108">
+        <v>1500</v>
+      </c>
+      <c r="C108">
+        <v>1400</v>
+      </c>
+      <c r="D108">
+        <v>150</v>
+      </c>
+      <c r="E108" t="s">
+        <v>87</v>
+      </c>
+      <c r="F108" t="s">
+        <v>87</v>
+      </c>
+      <c r="G108" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109">
+        <v>9877</v>
+      </c>
+      <c r="C109">
+        <v>7000</v>
+      </c>
+      <c r="D109">
+        <v>15</v>
+      </c>
+      <c r="E109" t="s">
+        <v>88</v>
+      </c>
+      <c r="F109" t="s">
+        <v>89</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110">
+        <v>500</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>75</v>
+      </c>
+      <c r="G110" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111">
+        <v>123000</v>
+      </c>
+      <c r="C111">
+        <v>12200</v>
+      </c>
+      <c r="D111">
+        <v>60</v>
+      </c>
+      <c r="E111" t="s">
+        <v>84</v>
+      </c>
+      <c r="F111" t="s">
+        <v>85</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112">
+        <v>1500</v>
+      </c>
+      <c r="C112">
+        <v>1400</v>
+      </c>
+      <c r="D112">
+        <v>150</v>
+      </c>
+      <c r="E112" t="s">
+        <v>87</v>
+      </c>
+      <c r="F112" t="s">
+        <v>87</v>
+      </c>
+      <c r="G112" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113">
+        <v>9877</v>
+      </c>
+      <c r="C113">
+        <v>7000</v>
+      </c>
+      <c r="D113">
+        <v>15</v>
+      </c>
+      <c r="E113" t="s">
+        <v>88</v>
+      </c>
+      <c r="F113" t="s">
+        <v>89</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114">
+        <v>500</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>75</v>
+      </c>
+      <c r="G114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115">
+        <v>123000</v>
+      </c>
+      <c r="C115">
+        <v>12200</v>
+      </c>
+      <c r="D115">
+        <v>60</v>
+      </c>
+      <c r="E115" t="s">
+        <v>84</v>
+      </c>
+      <c r="F115" t="s">
+        <v>85</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116">
+        <v>123000</v>
+      </c>
+      <c r="C116">
+        <v>12200</v>
+      </c>
+      <c r="D116">
+        <v>150</v>
+      </c>
+      <c r="E116" t="s">
+        <v>94</v>
+      </c>
+      <c r="F116" t="s">
+        <v>94</v>
+      </c>
+      <c r="G116" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117">
+        <v>1500</v>
+      </c>
+      <c r="C117">
+        <v>1400</v>
+      </c>
+      <c r="D117">
+        <v>15</v>
+      </c>
+      <c r="E117" t="s">
+        <v>95</v>
+      </c>
+      <c r="F117" t="s">
+        <v>95</v>
+      </c>
+      <c r="G117" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118">
+        <v>9877</v>
+      </c>
+      <c r="C118">
+        <v>7000</v>
+      </c>
+      <c r="D118">
+        <v>75</v>
+      </c>
+      <c r="E118" t="s">
+        <v>97</v>
+      </c>
+      <c r="F118" t="s">
+        <v>97</v>
+      </c>
+      <c r="G118" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119">
+        <v>500</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>60</v>
+      </c>
+      <c r="G119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120">
+        <v>123000</v>
+      </c>
+      <c r="C120">
+        <v>12200</v>
+      </c>
+      <c r="D120">
+        <v>150</v>
+      </c>
+      <c r="E120" t="s">
+        <v>94</v>
+      </c>
+      <c r="F120" t="s">
+        <v>94</v>
+      </c>
+      <c r="G120" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121">
+        <v>1500</v>
+      </c>
+      <c r="C121">
+        <v>1400</v>
+      </c>
+      <c r="D121">
+        <v>15</v>
+      </c>
+      <c r="E121" t="s">
+        <v>95</v>
+      </c>
+      <c r="F121" t="s">
+        <v>95</v>
+      </c>
+      <c r="G121" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122">
+        <v>9877</v>
+      </c>
+      <c r="C122">
+        <v>7000</v>
+      </c>
+      <c r="D122">
+        <v>75</v>
+      </c>
+      <c r="E122" t="s">
+        <v>97</v>
+      </c>
+      <c r="F122" t="s">
+        <v>97</v>
+      </c>
+      <c r="G122" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123">
+        <v>500</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>60</v>
+      </c>
+      <c r="G123" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124">
+        <v>123000</v>
+      </c>
+      <c r="C124">
+        <v>12200</v>
+      </c>
+      <c r="D124">
+        <v>150</v>
+      </c>
+      <c r="E124" t="s">
+        <v>94</v>
+      </c>
+      <c r="F124" t="s">
+        <v>94</v>
+      </c>
+      <c r="G124" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125">
+        <v>123000</v>
+      </c>
+      <c r="C125">
+        <v>12200</v>
+      </c>
+      <c r="D125">
+        <v>15</v>
+      </c>
+      <c r="E125" t="s">
+        <v>101</v>
+      </c>
+      <c r="F125" t="s">
+        <v>102</v>
+      </c>
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126">
+        <v>1500</v>
+      </c>
+      <c r="C126">
+        <v>1400</v>
+      </c>
+      <c r="D126">
+        <v>75</v>
+      </c>
+      <c r="E126" t="s">
+        <v>104</v>
+      </c>
+      <c r="F126" t="s">
+        <v>104</v>
+      </c>
+      <c r="G126" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127">
+        <v>9877</v>
+      </c>
+      <c r="C127">
+        <v>7000</v>
+      </c>
+      <c r="D127">
+        <v>60</v>
+      </c>
+      <c r="E127" t="s">
+        <v>106</v>
+      </c>
+      <c r="F127" t="s">
+        <v>106</v>
+      </c>
+      <c r="G127" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128">
+        <v>500</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>150</v>
+      </c>
+      <c r="G128" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129">
+        <v>123000</v>
+      </c>
+      <c r="C129">
+        <v>12200</v>
+      </c>
+      <c r="D129">
+        <v>15</v>
+      </c>
+      <c r="E129" t="s">
+        <v>101</v>
+      </c>
+      <c r="F129" t="s">
+        <v>102</v>
+      </c>
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130">
+        <v>1500</v>
+      </c>
+      <c r="C130">
+        <v>1400</v>
+      </c>
+      <c r="D130">
+        <v>75</v>
+      </c>
+      <c r="E130" t="s">
+        <v>104</v>
+      </c>
+      <c r="F130" t="s">
+        <v>104</v>
+      </c>
+      <c r="G130" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131">
+        <v>9877</v>
+      </c>
+      <c r="C131">
+        <v>7000</v>
+      </c>
+      <c r="D131">
+        <v>60</v>
+      </c>
+      <c r="E131" t="s">
+        <v>106</v>
+      </c>
+      <c r="F131" t="s">
+        <v>106</v>
+      </c>
+      <c r="G131" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132">
+        <v>500</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>150</v>
+      </c>
+      <c r="G132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133">
+        <v>123000</v>
+      </c>
+      <c r="C133">
+        <v>12200</v>
+      </c>
+      <c r="D133">
+        <v>15</v>
+      </c>
+      <c r="E133" t="s">
+        <v>101</v>
+      </c>
+      <c r="F133" t="s">
+        <v>102</v>
+      </c>
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134">
+        <v>123000</v>
+      </c>
+      <c r="C134">
+        <v>12200</v>
+      </c>
+      <c r="D134">
+        <v>75</v>
+      </c>
+      <c r="E134" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135">
+        <v>1500</v>
+      </c>
+      <c r="C135">
+        <v>1400</v>
+      </c>
+      <c r="D135">
+        <v>60</v>
+      </c>
+      <c r="E135" t="s">
+        <v>21</v>
+      </c>
+      <c r="F135" t="s">
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136">
+        <v>9877</v>
+      </c>
+      <c r="C136">
+        <v>7000</v>
+      </c>
+      <c r="D136">
+        <v>150</v>
+      </c>
+      <c r="E136" t="s">
+        <v>17</v>
+      </c>
+      <c r="F136" t="s">
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137">
+        <v>500</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>15</v>
+      </c>
+      <c r="G137" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138">
+        <v>123000</v>
+      </c>
+      <c r="C138">
+        <v>12200</v>
+      </c>
+      <c r="D138">
+        <v>75</v>
+      </c>
+      <c r="E138" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139">
+        <v>1500</v>
+      </c>
+      <c r="C139">
+        <v>1400</v>
+      </c>
+      <c r="D139">
+        <v>60</v>
+      </c>
+      <c r="E139" t="s">
+        <v>21</v>
+      </c>
+      <c r="F139" t="s">
+        <v>21</v>
+      </c>
+      <c r="G139" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140">
+        <v>9877</v>
+      </c>
+      <c r="C140">
+        <v>7000</v>
+      </c>
+      <c r="D140">
+        <v>150</v>
+      </c>
+      <c r="E140" t="s">
+        <v>17</v>
+      </c>
+      <c r="F140" t="s">
+        <v>17</v>
+      </c>
+      <c r="G140" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141">
+        <v>500</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>15</v>
+      </c>
+      <c r="G141" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142">
+        <v>123000</v>
+      </c>
+      <c r="C142">
+        <v>12200</v>
+      </c>
+      <c r="D142">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
